--- a/schedule_m10_p5.xlsx
+++ b/schedule_m10_p5.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>최</t>
+          <t>도</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>도</t>
+          <t>김</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>김</t>
+          <t>최</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -639,12 +639,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>최</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>남</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>최</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>최</t>
+          <t>오</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>최</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>남</t>
+          <t>최</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -745,17 +745,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>오,도</t>
+          <t>도,남</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>최,도</t>
+          <t>남,김</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>오,김</t>
+          <t>도,김</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -784,17 +784,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>오</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>최</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>오</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>오</t>
+          <t>도</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>김</t>
+          <t>최</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>최</t>
+          <t>오</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>최</t>
+          <t>김</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -895,17 +895,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>도,남</t>
+          <t>최,남</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>최,김</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>오,김</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>남,김</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -949,12 +949,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>오</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>최</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>오</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1013,22 +1013,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>김</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>도</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>오</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>도</t>
-        </is>
-      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>김</t>
+          <t>남</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1050,12 +1050,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>최,김</t>
+          <t>최,도</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>최,남</t>
+          <t>오,최</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>최,도</t>
+          <t>오,도</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1179,10 +1179,10 @@
         <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -1228,13 +1228,13 @@
         <v>4</v>
       </c>
       <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
         <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3</v>
       </c>
       <c r="L3" t="n">
         <v>6</v>
@@ -1259,22 +1259,22 @@
         <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
         <v>6</v>
@@ -1299,10 +1299,10 @@
         <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -1339,10 +1339,10 @@
         <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
